--- a/RoutineWork/早上开盘例行.xlsx
+++ b/RoutineWork/早上开盘例行.xlsx
@@ -51,11 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旗舰版证券服务器检查
-早上9点期货正常开盘后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.运行ServerMonitor.exe对222.73.114.115和222.73.114.116进行检查。
 2.222.73.114.115和222.73.114.116状态如有异常，则进入centos全部重启新版服务器进程。
 3.检查windows服务器222.73.114.114接收程序是否正常订阅到行情，查询当日数据检查数据库数据是否正常。有异常及时重启。
@@ -88,8 +83,13 @@
     <t xml:space="preserve">1.监控器链接所有服务器，检查每个机器数据是否一致，订阅行情。
 2.检查各个机器的行情接收程序工作是否正常，是否正常接收到行情。
 3.检查各个服务器Glacier是否正常。
-4.9:59检查各个服务器是否收到集合竞价行情，及时处理有问题服务器。
+4.8:59检查各个服务器是否收到集合竞价行情，及时处理有问题服务器。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗舰版证券服务器检查
+期货检查结束后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.15"/>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -620,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -632,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>

--- a/RoutineWork/早上开盘例行.xlsx
+++ b/RoutineWork/早上开盘例行.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>操作明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器运维检查内容列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,45 +47,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.运行ServerMonitor.exe对222.73.114.115和222.73.114.116进行检查。
-2.222.73.114.115和222.73.114.116状态如有异常，则进入centos全部重启新版服务器进程。
-3.检查windows服务器222.73.114.114接收程序是否正常订阅到行情，查询当日数据检查数据库数据是否正常。有异常及时重启。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.远程桌面登陆180.97.15.156，180.97.15.170和222.73.164.179，检查极速版服务器是否正常。各个程序是否有报错情况。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.登录119.147.88.76检查磁盘是否饱和，及时清理磁盘。
-2.检查各个程序运行是否正常，发现问题重启全部程序。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.监控器链接119.147.88.77（实盘），113.108.68.4（实盘）和180.153.242.101（模拟柜台） 是否可以正常查询数据，订阅数据。
-2.检查119.147.88.77，113.108.68.4和180.153.242.101的行情接收程序工作是否正常，是否正常接收到行情。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期货模拟柜台检查
 期货行情服务器检查后进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.监控器链接所有服务器，检查每个机器数据是否一致，订阅行情。
-2.检查各个机器的行情接收程序工作是否正常，是否正常接收到行情。
-3.检查各个服务器Glacier是否正常。
-4.8:59检查各个服务器是否收到集合竞价行情，及时处理有问题服务器。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旗舰版证券服务器检查
 期货检查结束后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录旗舰版客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）运行ServerMonitor.exe对222.73.114.115和222.73.114.116进行检查。
+2）222.73.114.115和222.73.114.116状态如有异常，则进入centos全部重启新版服务器进程。
+3）检查windows服务器222.73.114.114接收程序是否正常订阅到行情，查询当日数据检查数据库数据是否正常。有异常及时重启。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1）远程桌面登陆180.97.15.156，180.97.15.170和222.73.164.179，检查极速版服务器是否正常。各个程序是否有报错情况。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1）登录119.147.88.76检查磁盘是否饱和，及时清理磁盘。
+2）检查各个程序运行是否正常，发现问题重启全部程序。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1）监控器链接119.147.88.77（实盘），113.108.68.4（实盘）和180.153.242.101（模拟柜台） 是否可以正常查询数据，订阅数据。
+2）检查119.147.88.77，113.108.68.4和180.153.242.101的行情接收程序工作是否正常，是否正常接收到行情。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1）监控器链接所有服务器，检查每个机器数据是否一致，订阅行情。
+2）检查各个机器的行情接收程序工作是否正常，是否正常接收到行情。
+3）检查各个服务器Glacier是否正常。
+4）8:59检查各个服务器是否收到集合竞价行情，及时处理有问题服务器。
+</t>
+  </si>
+  <si>
+    <t>1）检查期货、证券和外盘行情是否正常链接，检查期货和证券模拟账户是否可以正常登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘服务器运维检查内容列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,21 +542,21 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="37.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="111.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -584,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -596,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -608,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -620,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -632,10 +635,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -643,8 +646,12 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">

--- a/RoutineWork/早上开盘例行.xlsx
+++ b/RoutineWork/早上开盘例行.xlsx
@@ -76,11 +76,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1）监控器链接119.147.88.77（实盘），113.108.68.4（实盘）和180.153.242.101（模拟柜台） 是否可以正常查询数据，订阅数据。
-2）检查119.147.88.77，113.108.68.4和180.153.242.101的行情接收程序工作是否正常，是否正常接收到行情。
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1）监控器链接所有服务器，检查每个机器数据是否一致，订阅行情。
 2）检查各个机器的行情接收程序工作是否正常，是否正常接收到行情。
 3）检查各个服务器Glacier是否正常。
@@ -93,6 +88,13 @@
   </si>
   <si>
     <t>早盘服务器运维检查内容列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）监控器链接119.147.88.77（实盘），113.108.68.4（实盘）和180.153.242.101（模拟柜台） 是否可以正常查询数据，订阅数据。
+2）检查119.147.88.77，113.108.68.4和180.153.242.101的行情接收程序工作是否正常，是否正常接收到行情。
+3）如果服务器压力较大，可以每天开盘前重启glacier
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -590,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -630,7 +632,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -638,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -650,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
     </row>

--- a/RoutineWork/早上开盘例行.xlsx
+++ b/RoutineWork/早上开盘例行.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日间交易检查" sheetId="1" r:id="rId1"/>
+    <sheet name="夜盘交易检查" sheetId="2" r:id="rId2"/>
+    <sheet name="周末运维检查" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +89,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早盘服务器运维检查内容列表</t>
+    <t>收盘检查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和下午收盘时检查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日间交易服务器运维检查内容列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜盘服务器运维检查内容列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜盘收盘时检查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗舰版服务器检查
+晚上20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本行情服务器检查
+晚上20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速版行情服务器检查
+晚上20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）监控器链接所有服务器，检查每个机器数据是否一致，订阅行情。
+2）检查各个机器的行情接收程序工作是否正常，是否正常接收到行情。
+3）检查各个服务器Glacier是否正常。
+4）20:59检查各个服务器是否收到集合竞价行情，及时处理有问题服务器。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗舰版行情服务器程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）检查行情服务器程序是否日出而结完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点10分开始检查，尽量在8点30分处理完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末服务器运维检查内容列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗舰版服务器重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗舰版服务器验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -544,7 +613,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -640,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -660,8 +729,482 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="117.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
